--- a/raw_data/20200818_saline/20200818_Sensor1_Test_13.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_13.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B13FA9-B956-4C34-87C0-1441A00817FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>10988.553199</v>
       </c>
       <c r="B2" s="1">
-        <v>3.052376</v>
+        <v>3.0523760000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>898.576000</v>
+        <v>898.57600000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.647000</v>
+        <v>-200.64699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10999.274725</v>
+        <v>10999.274724999999</v>
       </c>
       <c r="G2" s="1">
-        <v>3.055354</v>
+        <v>3.0553539999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.708000</v>
+        <v>916.70799999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>11009.740839</v>
       </c>
       <c r="L2" s="1">
-        <v>3.058261</v>
+        <v>3.0582609999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.467000</v>
+        <v>939.46699999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.581000</v>
+        <v>-119.581</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>11020.560532</v>
@@ -526,163 +942,163 @@
         <v>3.061267</v>
       </c>
       <c r="R2" s="1">
-        <v>945.931000</v>
+        <v>945.93100000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.378000</v>
+        <v>-103.378</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>11031.440774</v>
+        <v>11031.440774000001</v>
       </c>
       <c r="V2" s="1">
         <v>3.064289</v>
       </c>
       <c r="W2" s="1">
-        <v>952.293000</v>
+        <v>952.29300000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.227200</v>
+        <v>-88.227199999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>11041.866216</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.067185</v>
+        <v>3.0671849999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.199000</v>
+        <v>959.19899999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.576000</v>
+        <v>-76.575999999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>11052.407658</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.070113</v>
+        <v>3.0701130000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.783000</v>
+        <v>963.78300000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.383100</v>
+        <v>-74.383099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>11062.860350</v>
+        <v>11062.860350000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.073017</v>
+        <v>3.0730170000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.907000</v>
+        <v>970.90700000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.121400</v>
+        <v>-79.121399999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>11073.720253</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.076033</v>
+        <v>3.0760329999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.833000</v>
+        <v>978.83299999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.644900</v>
+        <v>-90.644900000000007</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>11084.461151</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.079017</v>
+        <v>3.0790169999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.536000</v>
+        <v>988.53599999999994</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.268000</v>
+        <v>-108.268</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>11095.234225</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.082010</v>
+        <v>3.0820099999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.694000</v>
+        <v>996.69399999999996</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.883000</v>
+        <v>-123.883</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>11105.786643</v>
+        <v>11105.786642999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.084941</v>
+        <v>3.0849410000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.841000</v>
+        <v>-195.84100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>11116.499739</v>
+        <v>11116.499739000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>3.087917</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.433000</v>
+        <v>-313.43299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>11127.193943</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.090887</v>
+        <v>3.0908869999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.783000</v>
+        <v>-499.78300000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>11137.934352</v>
@@ -691,120 +1107,120 @@
         <v>3.093871</v>
       </c>
       <c r="BU2" s="1">
-        <v>1328.560000</v>
+        <v>1328.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.967000</v>
+        <v>-704.96699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>11148.949494</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.096930</v>
+        <v>3.09693</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1465.420000</v>
+        <v>1465.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-924.255000</v>
+        <v>-924.255</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>11159.602044</v>
+        <v>11159.602043999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.099889</v>
+        <v>3.0998890000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.750000</v>
+        <v>1826.75</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1444.120000</v>
+        <v>-1444.12</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>10988.905853</v>
       </c>
       <c r="B3" s="1">
-        <v>3.052474</v>
+        <v>3.0524740000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>898.499000</v>
+        <v>898.49900000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.466000</v>
+        <v>-200.46600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>10999.999904</v>
       </c>
       <c r="G3" s="1">
-        <v>3.055556</v>
+        <v>3.0555560000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>916.417000</v>
+        <v>916.41700000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.405000</v>
+        <v>-169.405</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>11010.473889</v>
+        <v>11010.473889000001</v>
       </c>
       <c r="L3" s="1">
         <v>3.058465</v>
       </c>
       <c r="M3" s="1">
-        <v>939.266000</v>
+        <v>939.26599999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.731000</v>
+        <v>-119.73099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>11020.908723</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.061364</v>
+        <v>3.0613640000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>945.886000</v>
+        <v>945.88599999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.390000</v>
+        <v>-103.39</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>11031.799413</v>
+        <v>11031.799413000001</v>
       </c>
       <c r="V3" s="1">
-        <v>3.064389</v>
+        <v>3.0643889999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>952.268000</v>
+        <v>952.26800000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.221900</v>
+        <v>-88.221900000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>11042.227271</v>
@@ -813,181 +1229,181 @@
         <v>3.067285</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.213000</v>
+        <v>959.21299999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.605400</v>
+        <v>-76.605400000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>11053.086680</v>
+        <v>11053.08668</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.070302</v>
+        <v>3.0703019999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.780000</v>
+        <v>963.78</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.418500</v>
+        <v>-74.418499999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>11063.561691</v>
+        <v>11063.561691000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.073212</v>
+        <v>3.0732119999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.877000</v>
+        <v>970.87699999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.105600</v>
+        <v>-79.105599999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>11073.829901</v>
+        <v>11073.829900999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.076064</v>
+        <v>3.0760640000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.846000</v>
+        <v>978.846</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.660800</v>
+        <v>-90.660799999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>11084.843566</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.079123</v>
+        <v>3.0791230000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.572000</v>
+        <v>988.572</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.288000</v>
+        <v>-108.288</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>11095.612403</v>
+        <v>11095.612402999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.082115</v>
+        <v>3.0821149999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.665000</v>
+        <v>996.66499999999996</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.864000</v>
+        <v>-123.864</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>11106.183941</v>
+        <v>11106.183940999999</v>
       </c>
       <c r="BE3" s="1">
         <v>3.085051</v>
       </c>
       <c r="BF3" s="1">
-        <v>1034.640000</v>
+        <v>1034.6400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.861000</v>
+        <v>-195.86099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>11116.888069</v>
+        <v>11116.888069000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.088024</v>
+        <v>3.0880239999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.170000</v>
+        <v>1100.17</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.438000</v>
+        <v>-313.43799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>11127.609722</v>
+        <v>11127.609721999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.091003</v>
+        <v>3.0910030000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.873000</v>
+        <v>-499.87299999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>11138.441720</v>
+        <v>11138.441720000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.094012</v>
+        <v>3.0940120000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1328.570000</v>
+        <v>1328.57</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.862000</v>
+        <v>-704.86199999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>11149.138442</v>
+        <v>11149.138441999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.096983</v>
+        <v>3.0969829999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1465.330000</v>
+        <v>1465.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-924.239000</v>
+        <v>-924.23900000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>11160.150162</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.100042</v>
+        <v>3.1000420000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.720000</v>
+        <v>1825.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1445.030000</v>
+        <v>-1445.03</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>10989.591821</v>
       </c>
@@ -995,58 +1411,58 @@
         <v>3.052664</v>
       </c>
       <c r="C4" s="1">
-        <v>898.626000</v>
+        <v>898.62599999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.283000</v>
+        <v>-200.28299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>11000.344592</v>
+        <v>11000.344591999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.055651</v>
+        <v>3.0556510000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.541000</v>
+        <v>916.54100000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.512000</v>
+        <v>-169.512</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>11010.816656</v>
+        <v>11010.816656000001</v>
       </c>
       <c r="L4" s="1">
-        <v>3.058560</v>
+        <v>3.0585599999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.370000</v>
+        <v>939.37</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.895000</v>
+        <v>-119.895</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>11021.256916</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.061460</v>
+        <v>3.0614599999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>945.896000</v>
+        <v>945.89599999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.350000</v>
+        <v>-103.35</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>11032.443684</v>
@@ -1055,43 +1471,43 @@
         <v>3.064568</v>
       </c>
       <c r="W4" s="1">
-        <v>952.298000</v>
+        <v>952.298</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.216300</v>
+        <v>-88.216300000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>11042.883832</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.067468</v>
+        <v>3.0674679999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.239000</v>
+        <v>959.23900000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.649400</v>
+        <v>-76.6494</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>11053.473096</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.070409</v>
+        <v>3.0704090000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.788000</v>
+        <v>963.78800000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.380400</v>
+        <v>-74.380399999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>11063.935178</v>
@@ -1100,28 +1516,28 @@
         <v>3.073315</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.851000</v>
+        <v>970.851</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.095100</v>
+        <v>-79.095100000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>11074.180559</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.076161</v>
+        <v>3.0761609999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.845000</v>
+        <v>978.84500000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.652200</v>
+        <v>-90.652199999999993</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>11085.207102</v>
@@ -1130,58 +1546,58 @@
         <v>3.079224</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.560000</v>
+        <v>988.56</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.280000</v>
+        <v>-108.28</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>11095.971280</v>
+        <v>11095.97128</v>
       </c>
       <c r="AZ4" s="1">
         <v>3.082214</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.689000</v>
+        <v>996.68899999999996</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>11106.601539</v>
+        <v>11106.601538999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.085167</v>
+        <v>3.0851670000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1034.650000</v>
+        <v>1034.6500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.884000</v>
+        <v>-195.88399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>11117.297765</v>
+        <v>11117.297764999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.088138</v>
+        <v>3.0881379999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.438000</v>
+        <v>-313.43799999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>11128.029207</v>
@@ -1190,210 +1606,210 @@
         <v>3.091119</v>
       </c>
       <c r="BP4" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.840000</v>
+        <v>-499.84</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>11138.815227</v>
+        <v>11138.815226999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.094115</v>
+        <v>3.0941149999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1328.690000</v>
+        <v>1328.69</v>
       </c>
       <c r="BV4" s="1">
-        <v>-704.858000</v>
+        <v>-704.85799999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>11149.575417</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.097104</v>
+        <v>3.0971039999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1465.480000</v>
+        <v>1465.48</v>
       </c>
       <c r="CA4" s="1">
-        <v>-924.345000</v>
+        <v>-924.34500000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>11160.669466</v>
+        <v>11160.669465999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.100186</v>
+        <v>3.1001859999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.180000</v>
+        <v>1826.18</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1446.730000</v>
+        <v>-1446.73</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>10989.929596</v>
       </c>
       <c r="B5" s="1">
-        <v>3.052758</v>
+        <v>3.0527579999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.526000</v>
+        <v>898.52599999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.505000</v>
+        <v>-200.505</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>11000.692783</v>
       </c>
       <c r="G5" s="1">
-        <v>3.055748</v>
+        <v>3.0557479999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>916.295000</v>
+        <v>916.29499999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.612000</v>
+        <v>-169.61199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>11011.469856</v>
       </c>
       <c r="L5" s="1">
-        <v>3.058742</v>
+        <v>3.0587420000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>939.267000</v>
+        <v>939.26700000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.816000</v>
+        <v>-119.816</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>11021.921090</v>
+        <v>11021.92109</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.061645</v>
+        <v>3.0616449999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>945.911000</v>
+        <v>945.91099999999994</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>11032.827093</v>
       </c>
       <c r="V5" s="1">
-        <v>3.064674</v>
+        <v>3.0646740000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>952.233000</v>
+        <v>952.23299999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.202900</v>
+        <v>-88.2029</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>11043.272342</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.067576</v>
+        <v>3.0675759999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.215000</v>
+        <v>959.21500000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.608100</v>
+        <v>-76.608099999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>11053.818280</v>
+        <v>11053.81828</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.070505</v>
+        <v>3.0705049999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.764000</v>
+        <v>963.76400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.410900</v>
+        <v>-74.410899999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>11064.283866</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.073412</v>
+        <v>3.0734119999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.873000</v>
+        <v>970.87300000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.109500</v>
+        <v>-79.109499999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>11074.543118</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.076262</v>
+        <v>3.0762619999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.858000</v>
+        <v>978.85799999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.633800</v>
+        <v>-90.633799999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>11085.626253</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.079341</v>
+        <v>3.0793409999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.553000</v>
+        <v>988.553</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.295000</v>
+        <v>-108.295</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>11096.382495</v>
@@ -1402,88 +1818,88 @@
         <v>3.082328</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.679000</v>
+        <v>996.67899999999997</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.870000</v>
+        <v>-123.87</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>11106.907570</v>
+        <v>11106.907569999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.085252</v>
+        <v>3.0852520000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.620000</v>
+        <v>1034.6199999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.851000</v>
+        <v>-195.851</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>11117.641987</v>
+        <v>11117.641987000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.088234</v>
+        <v>3.0882339999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.190000</v>
+        <v>1100.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.463000</v>
+        <v>-313.46300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>11128.428485</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.091230</v>
+        <v>3.0912299999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.869000</v>
+        <v>-499.86900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>11139.247751</v>
+        <v>11139.247751000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.094235</v>
+        <v>3.0942349999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1328.820000</v>
+        <v>1328.82</v>
       </c>
       <c r="BV5" s="1">
-        <v>-704.919000</v>
+        <v>-704.91899999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>11149.991080</v>
+        <v>11149.99108</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.097220</v>
+        <v>3.0972200000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1465.450000</v>
+        <v>1465.45</v>
       </c>
       <c r="CA5" s="1">
-        <v>-924.229000</v>
+        <v>-924.22900000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>11161.209579</v>
@@ -1492,302 +1908,302 @@
         <v>3.100336</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.570000</v>
+        <v>1826.57</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1444.660000</v>
+        <v>-1444.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>10990.272828</v>
+        <v>10990.272827999999</v>
       </c>
       <c r="B6" s="1">
         <v>3.052854</v>
       </c>
       <c r="C6" s="1">
-        <v>898.623000</v>
+        <v>898.62300000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.307000</v>
+        <v>-200.30699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>11001.341549</v>
+        <v>11001.341549000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3.055928</v>
+        <v>3.0559280000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>916.187000</v>
+        <v>916.18700000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.129000</v>
+        <v>-169.12899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>11011.853323</v>
+        <v>11011.853322999999</v>
       </c>
       <c r="L6" s="1">
-        <v>3.058848</v>
+        <v>3.0588479999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>939.371000</v>
+        <v>939.37099999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.892000</v>
+        <v>-119.892</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>11022.304001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.061751</v>
+        <v>3.0617510000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>945.943000</v>
+        <v>945.94299999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>11033.172803</v>
+        <v>11033.172802999999</v>
       </c>
       <c r="V6" s="1">
-        <v>3.064770</v>
+        <v>3.0647700000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>952.249000</v>
+        <v>952.24900000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.117500</v>
+        <v>-88.117500000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>11043.623046</v>
+        <v>11043.623046000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.067673</v>
+        <v>3.0676730000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.260000</v>
+        <v>959.26</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.553000</v>
+        <v>-76.552999999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>11054.164488</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.070601</v>
+        <v>3.0706009999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.799000</v>
+        <v>963.79899999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.387000</v>
+        <v>-74.387</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>11064.634041</v>
+        <v>11064.634040999999</v>
       </c>
       <c r="AK6" s="1">
         <v>3.073509</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.867000</v>
+        <v>970.86699999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.107100</v>
+        <v>-79.107100000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>11074.960749</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.076378</v>
+        <v>3.0763780000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.859000</v>
+        <v>978.85900000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.659100</v>
+        <v>-90.659099999999995</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>11085.936717</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.079427</v>
+        <v>3.0794269999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.564000</v>
+        <v>988.56399999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.277000</v>
+        <v>-108.277</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>11096.678079</v>
+        <v>11096.678078999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>3.082411</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.662000</v>
+        <v>996.66200000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.881000</v>
+        <v>-123.881</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>11107.269180</v>
+        <v>11107.269179999999</v>
       </c>
       <c r="BE6" s="1">
         <v>3.085353</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.846000</v>
+        <v>-195.846</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>11118.017459</v>
+        <v>11118.017459000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.088338</v>
+        <v>3.0883379999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.453000</v>
+        <v>-313.45299999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>11128.849588</v>
+        <v>11128.849587999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.091347</v>
+        <v>3.0913469999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.880000</v>
+        <v>-499.88</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>11139.662374</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.094351</v>
+        <v>3.0943510000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1328.840000</v>
+        <v>1328.84</v>
       </c>
       <c r="BV6" s="1">
-        <v>-704.812000</v>
+        <v>-704.81200000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>11150.418120</v>
+        <v>11150.41812</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.097338</v>
+        <v>3.0973380000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1465.450000</v>
+        <v>1465.45</v>
       </c>
       <c r="CA6" s="1">
-        <v>-924.252000</v>
+        <v>-924.25199999999995</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>11161.749721</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.100486</v>
+        <v>3.1004860000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.340000</v>
+        <v>1825.34</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1445.680000</v>
+        <v>-1445.68</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>10990.934027</v>
+        <v>10990.934026999999</v>
       </c>
       <c r="B7" s="1">
-        <v>3.053037</v>
+        <v>3.0530369999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>898.539000</v>
+        <v>898.53899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.482000</v>
+        <v>-200.482</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>11001.722972</v>
       </c>
       <c r="G7" s="1">
-        <v>3.056034</v>
+        <v>3.0560339999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>916.267000</v>
+        <v>916.26700000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.083000</v>
+        <v>-169.083</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>11012.200959</v>
@@ -1796,178 +2212,178 @@
         <v>3.058945</v>
       </c>
       <c r="M7" s="1">
-        <v>939.422000</v>
+        <v>939.42200000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.949000</v>
+        <v>-119.949</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>11022.653153</v>
+        <v>11022.653152999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.061848</v>
+        <v>3.0618479999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>945.941000</v>
+        <v>945.94100000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.390000</v>
+        <v>-103.39</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>11033.517027</v>
       </c>
       <c r="V7" s="1">
-        <v>3.064866</v>
+        <v>3.0648659999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>952.291000</v>
+        <v>952.29100000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.210400</v>
+        <v>-88.210400000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>11043.972197</v>
+        <v>11043.972196999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.067770</v>
+        <v>3.0677699999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.128000</v>
+        <v>959.12800000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.619200</v>
+        <v>-76.619200000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>11054.576167</v>
+        <v>11054.576166999999</v>
       </c>
       <c r="AF7" s="1">
         <v>3.070716</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.762000</v>
+        <v>963.76199999999994</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.351400</v>
+        <v>-74.351399999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11065.050681</v>
+        <v>11065.050681000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.073625</v>
+        <v>3.0736249999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.858000</v>
+        <v>970.85799999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.104800</v>
+        <v>-79.104799999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>11075.265323</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.076463</v>
+        <v>3.0764629999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.828000</v>
+        <v>978.82799999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.661300</v>
+        <v>-90.661299999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>11086.301309</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.079528</v>
+        <v>3.0795279999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.556000</v>
+        <v>988.55600000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.275000</v>
+        <v>-108.27500000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>11097.049583</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.082514</v>
+        <v>3.0825140000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.663000</v>
+        <v>996.66300000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.879000</v>
+        <v>-123.879</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>11107.628126</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.085452</v>
+        <v>3.0854520000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.640000</v>
+        <v>1034.6400000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.868000</v>
+        <v>-195.86799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>11118.414789</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.088449</v>
+        <v>3.0884490000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.423000</v>
+        <v>-313.423</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>11129.662564</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.091573</v>
+        <v>3.0915729999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.871000</v>
+        <v>-499.87099999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>11140.085958</v>
@@ -1976,165 +2392,165 @@
         <v>3.094468</v>
       </c>
       <c r="BU7" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="BV7" s="1">
-        <v>-704.873000</v>
+        <v>-704.87300000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>11150.865543</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.097463</v>
+        <v>3.0974629999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1465.340000</v>
+        <v>1465.34</v>
       </c>
       <c r="CA7" s="1">
-        <v>-924.157000</v>
+        <v>-924.15700000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>11162.289383</v>
+        <v>11162.289382999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.100636</v>
+        <v>3.1006360000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.770000</v>
+        <v>1826.77</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1445.850000</v>
+        <v>-1445.85</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>10991.334266</v>
       </c>
       <c r="B8" s="1">
-        <v>3.053148</v>
+        <v>3.0531480000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>898.697000</v>
+        <v>898.697</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.566000</v>
+        <v>-200.566</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>11002.068189</v>
       </c>
       <c r="G8" s="1">
-        <v>3.056130</v>
+        <v>3.05613</v>
       </c>
       <c r="H8" s="1">
-        <v>916.399000</v>
+        <v>916.399</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.451000</v>
+        <v>-169.45099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>11012.544686</v>
+        <v>11012.544685999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.059040</v>
+        <v>3.05904</v>
       </c>
       <c r="M8" s="1">
-        <v>939.338000</v>
+        <v>939.33799999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.743000</v>
+        <v>-119.74299999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>11023.003330</v>
+        <v>11023.00333</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.061945</v>
+        <v>3.0619450000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>945.886000</v>
+        <v>945.88599999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.371000</v>
+        <v>-103.371</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>11033.926226</v>
       </c>
       <c r="V8" s="1">
-        <v>3.064980</v>
+        <v>3.0649799999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>952.268000</v>
+        <v>952.26800000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.224400</v>
+        <v>-88.224400000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>11044.392320</v>
+        <v>11044.392320000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.067887</v>
+        <v>3.0678869999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.242000</v>
+        <v>959.24199999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.644300</v>
+        <v>-76.644300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>11054.866122</v>
+        <v>11054.866121999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.070796</v>
+        <v>3.0707960000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.784000</v>
+        <v>963.78399999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.398500</v>
+        <v>-74.398499999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>11065.344345</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.073707</v>
+        <v>3.0737070000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.882000</v>
+        <v>970.88199999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.108500</v>
+        <v>-79.108500000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>11075.623403</v>
@@ -2143,118 +2559,118 @@
         <v>3.076562</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.840000</v>
+        <v>978.84</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.647900</v>
+        <v>-90.647900000000007</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>11086.663516</v>
+        <v>11086.663516000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.079629</v>
+        <v>3.0796290000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.552000</v>
+        <v>988.55200000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.292000</v>
+        <v>-108.292</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>11097.408190</v>
+        <v>11097.40819</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.082613</v>
+        <v>3.0826129999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.672000</v>
+        <v>996.67200000000003</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>11108.349967</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.085653</v>
+        <v>3.0856530000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1034.630000</v>
+        <v>1034.6300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.844000</v>
+        <v>-195.84399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>11119.165725</v>
+        <v>11119.165725000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>3.088657</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.434000</v>
+        <v>-313.43400000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>11130.094051</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.091693</v>
+        <v>3.0916929999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.908000</v>
+        <v>-499.90800000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>11140.517013</v>
+        <v>11140.517013000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.094588</v>
+        <v>3.0945879999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.001000</v>
+        <v>-705.00099999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>11151.297062</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.097583</v>
+        <v>3.0975830000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1465.370000</v>
+        <v>1465.37</v>
       </c>
       <c r="CA8" s="1">
-        <v>-924.258000</v>
+        <v>-924.25800000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>11163.144473</v>
@@ -2263,75 +2679,75 @@
         <v>3.100873</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.200000</v>
+        <v>1825.2</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1445.850000</v>
+        <v>-1445.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>10991.668606</v>
+        <v>10991.668605999999</v>
       </c>
       <c r="B9" s="1">
-        <v>3.053241</v>
+        <v>3.0532409999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>898.615000</v>
+        <v>898.61500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.488000</v>
+        <v>-200.488</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>11002.411421</v>
+        <v>11002.411421000001</v>
       </c>
       <c r="G9" s="1">
         <v>3.056225</v>
       </c>
       <c r="H9" s="1">
-        <v>916.172000</v>
+        <v>916.17200000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.368000</v>
+        <v>-169.36799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>11012.959342</v>
       </c>
       <c r="L9" s="1">
-        <v>3.059155</v>
+        <v>3.0591550000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.286000</v>
+        <v>939.28599999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.873000</v>
+        <v>-119.873</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>11023.413024</v>
+        <v>11023.413023999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.062059</v>
+        <v>3.0620590000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.880000</v>
+        <v>945.88</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.379000</v>
+        <v>-103.379</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>11034.219858</v>
@@ -2340,148 +2756,148 @@
         <v>3.065061</v>
       </c>
       <c r="W9" s="1">
-        <v>952.269000</v>
+        <v>952.26900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.205000</v>
+        <v>-88.204999999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>11044.675028</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.067965</v>
+        <v>3.0679650000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.129000</v>
+        <v>959.12900000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.481800</v>
+        <v>-76.481800000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>11055.210054</v>
+        <v>11055.210053999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.070892</v>
+        <v>3.0708920000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.746000</v>
+        <v>963.74599999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.381100</v>
+        <v>-74.381100000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>11065.691549</v>
+        <v>11065.691548999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.073803</v>
+        <v>3.0738029999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.863000</v>
+        <v>970.86300000000006</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.095200</v>
+        <v>-79.095200000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>11075.983003</v>
+        <v>11075.983002999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.076662</v>
+        <v>3.0766619999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.851000</v>
+        <v>978.851</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.650700</v>
+        <v>-90.650700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>11087.396607</v>
+        <v>11087.396607000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.079832</v>
+        <v>3.0798320000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.552000</v>
+        <v>988.55200000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.286000</v>
+        <v>-108.286</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>11098.125405</v>
+        <v>11098.125405000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.082813</v>
+        <v>3.0828129999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.667000</v>
+        <v>996.66700000000003</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.878000</v>
+        <v>-123.878</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>11108.738308</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.085761</v>
+        <v>3.0857610000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.630000</v>
+        <v>1034.6300000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.845000</v>
+        <v>-195.845</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>11119.599730</v>
+        <v>11119.59973</v>
       </c>
       <c r="BJ9" s="1">
         <v>3.088778</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.441000</v>
+        <v>-313.44099999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>11130.472994</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.091798</v>
+        <v>3.0917979999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.875000</v>
+        <v>-499.875</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>11141.239679</v>
@@ -2490,13 +2906,13 @@
         <v>3.094789</v>
       </c>
       <c r="BU9" s="1">
-        <v>1329.090000</v>
+        <v>1329.09</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.028000</v>
+        <v>-705.02800000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>11152.036602</v>
@@ -2505,165 +2921,165 @@
         <v>3.097788</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1465.540000</v>
+        <v>1465.54</v>
       </c>
       <c r="CA9" s="1">
-        <v>-924.287000</v>
+        <v>-924.28700000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>11163.368694</v>
+        <v>11163.368694000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.100936</v>
+        <v>3.1009359999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.660000</v>
+        <v>1825.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1445.570000</v>
+        <v>-1445.57</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>10992.000393</v>
       </c>
       <c r="B10" s="1">
-        <v>3.053333</v>
+        <v>3.0533329999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>898.531000</v>
+        <v>898.53099999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.312000</v>
+        <v>-200.31200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>11002.827563</v>
+        <v>11002.827563000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.056341</v>
+        <v>3.0563410000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>916.379000</v>
+        <v>916.37900000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.568000</v>
+        <v>-169.56800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>11013.258430</v>
+        <v>11013.25843</v>
       </c>
       <c r="L10" s="1">
-        <v>3.059238</v>
+        <v>3.0592380000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.385000</v>
+        <v>939.38499999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.681000</v>
+        <v>-119.681</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>11023.700240</v>
+        <v>11023.70024</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.062139</v>
+        <v>3.0621390000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>945.893000</v>
+        <v>945.89300000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>11034.565570</v>
+        <v>11034.565570000001</v>
       </c>
       <c r="V10" s="1">
-        <v>3.065157</v>
+        <v>3.0651570000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>952.249000</v>
+        <v>952.24900000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.313800</v>
+        <v>-88.313800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>11045.021237</v>
+        <v>11045.021237000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.068061</v>
+        <v>3.0680610000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.164000</v>
+        <v>959.16399999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.622700</v>
+        <v>-76.622699999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>11055.552295</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.070987</v>
+        <v>3.0709870000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.815000</v>
+        <v>963.81500000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.401300</v>
+        <v>-74.401300000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>11066.372531</v>
+        <v>11066.372531000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.073992</v>
+        <v>3.0739920000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.868000</v>
+        <v>970.86800000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.105500</v>
+        <v>-79.105500000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>11076.704217</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.076862</v>
+        <v>3.0768620000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.838000</v>
+        <v>978.83799999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.640800</v>
+        <v>-90.640799999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>11087.790267</v>
@@ -2672,28 +3088,28 @@
         <v>3.079942</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.536000</v>
+        <v>988.53599999999994</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.292000</v>
+        <v>-108.292</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>11098.483517</v>
+        <v>11098.483517000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.082912</v>
+        <v>3.0829119999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.670000</v>
+        <v>996.67</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.872000</v>
+        <v>-123.872</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>11109.099887</v>
@@ -2702,195 +3118,195 @@
         <v>3.085861</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.620000</v>
+        <v>1034.6199999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.883000</v>
+        <v>-195.88300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>11120.103632</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.088918</v>
+        <v>3.0889180000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.190000</v>
+        <v>1100.19</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.428000</v>
+        <v>-313.428</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>11131.200130</v>
+        <v>11131.200129999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.092000</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.881000</v>
+        <v>-499.88099999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>11141.362660</v>
+        <v>11141.362660000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.094823</v>
+        <v>3.0948229999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1329.250000</v>
+        <v>1329.25</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.197000</v>
+        <v>-705.197</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>11152.169526</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.097825</v>
+        <v>3.0978249999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1465.530000</v>
+        <v>1465.53</v>
       </c>
       <c r="CA10" s="1">
-        <v>-924.234000</v>
+        <v>-924.23400000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>11163.887015</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.101080</v>
+        <v>3.1010800000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.370000</v>
+        <v>1826.37</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1446.200000</v>
+        <v>-1446.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>10992.678957</v>
       </c>
       <c r="B11" s="1">
-        <v>3.053522</v>
+        <v>3.0535220000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>898.455000</v>
+        <v>898.45500000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.502000</v>
+        <v>-200.50200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>11003.121691</v>
       </c>
       <c r="G11" s="1">
-        <v>3.056423</v>
+        <v>3.0564230000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.117000</v>
+        <v>916.11699999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.029000</v>
+        <v>-169.029</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>11013.601165</v>
       </c>
       <c r="L11" s="1">
-        <v>3.059334</v>
+        <v>3.0593340000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>939.481000</v>
+        <v>939.48099999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.675000</v>
+        <v>-119.675</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>11024.049919</v>
+        <v>11024.049918999999</v>
       </c>
       <c r="Q11" s="1">
         <v>3.062236</v>
       </c>
       <c r="R11" s="1">
-        <v>945.910000</v>
+        <v>945.91</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.363000</v>
+        <v>-103.363</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>11034.908305</v>
+        <v>11034.908305000001</v>
       </c>
       <c r="V11" s="1">
-        <v>3.065252</v>
+        <v>3.0652520000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.344000</v>
+        <v>952.34400000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.253600</v>
+        <v>-88.253600000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>11045.371942</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.068159</v>
+        <v>3.0681590000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.207000</v>
+        <v>959.20699999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.552300</v>
+        <v>-76.552300000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>11056.241269</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.071178</v>
+        <v>3.0711780000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.791000</v>
+        <v>963.79100000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.398100</v>
+        <v>-74.398099999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>11066.736582</v>
@@ -2899,210 +3315,210 @@
         <v>3.074093</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.874000</v>
+        <v>970.87400000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.090800</v>
+        <v>-79.090800000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>11077.090570</v>
+        <v>11077.09057</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.076970</v>
+        <v>3.0769700000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.858000</v>
+        <v>978.85799999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.640100</v>
+        <v>-90.640100000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>11088.153838</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.080043</v>
+        <v>3.0800429999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.563000</v>
+        <v>988.56299999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.274000</v>
+        <v>-108.274</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>11098.843116</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.083012</v>
+        <v>3.0830120000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.674000</v>
+        <v>996.67399999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.863000</v>
+        <v>-123.863</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>11109.756591</v>
+        <v>11109.756590999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.086043</v>
+        <v>3.0860430000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.851000</v>
+        <v>-195.851</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>11120.533199</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.089037</v>
+        <v>3.0890369999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.492000</v>
+        <v>-313.49200000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>11131.317681</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.092033</v>
+        <v>3.0920329999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.914000</v>
+        <v>-499.91399999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>11141.798644</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.094944</v>
+        <v>3.0949439999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1329.070000</v>
+        <v>1329.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.315000</v>
+        <v>-705.31500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>11152.593574</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.097943</v>
+        <v>3.0979429999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1465.460000</v>
+        <v>1465.46</v>
       </c>
       <c r="CA11" s="1">
-        <v>-924.346000</v>
+        <v>-924.346</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>11164.407318</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.101224</v>
+        <v>3.1012240000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.200000</v>
+        <v>1826.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1446.130000</v>
+        <v>-1446.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>10993.030088</v>
       </c>
       <c r="B12" s="1">
-        <v>3.053619</v>
+        <v>3.0536189999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>898.514000</v>
+        <v>898.51400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.502000</v>
+        <v>-200.50200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>11003.466939</v>
       </c>
       <c r="G12" s="1">
-        <v>3.056519</v>
+        <v>3.0565190000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>916.709000</v>
+        <v>916.70899999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.404000</v>
+        <v>-169.404</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>11013.950844</v>
+        <v>11013.950844000001</v>
       </c>
       <c r="L12" s="1">
         <v>3.059431</v>
       </c>
       <c r="M12" s="1">
-        <v>939.230000</v>
+        <v>939.23</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.766000</v>
+        <v>-119.76600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>11024.398078</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.062333</v>
+        <v>3.0623330000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>945.948000</v>
+        <v>945.94799999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.361000</v>
+        <v>-103.361</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>11035.592784</v>
@@ -3111,73 +3527,73 @@
         <v>3.065442</v>
       </c>
       <c r="W12" s="1">
-        <v>952.290000</v>
+        <v>952.29</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.235900</v>
+        <v>-88.235900000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>11046.066318</v>
+        <v>11046.066317999999</v>
       </c>
       <c r="AA12" s="1">
         <v>3.068352</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.207000</v>
+        <v>959.20699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.643100</v>
+        <v>-76.643100000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>11056.582655</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.071273</v>
+        <v>3.0712730000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.815000</v>
+        <v>963.81500000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.396800</v>
+        <v>-74.396799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>11067.084313</v>
+        <v>11067.084312999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.074190</v>
+        <v>3.0741900000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.898000</v>
+        <v>970.89800000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.102300</v>
+        <v>-79.1023</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>11077.450697</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.077070</v>
+        <v>3.07707</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.841000</v>
+        <v>978.84100000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.637500</v>
+        <v>-90.637500000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>11088.819962</v>
@@ -3186,255 +3602,255 @@
         <v>3.080228</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.561000</v>
+        <v>988.56100000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.282000</v>
+        <v>-108.282</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>11099.501344</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.083195</v>
+        <v>3.0831949999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.653000</v>
+        <v>996.65300000000002</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.870000</v>
+        <v>-123.87</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>11110.218861</v>
+        <v>11110.218860999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.086172</v>
+        <v>3.0861719999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.630000</v>
+        <v>1034.6300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.886000</v>
+        <v>-195.886</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>11120.696351</v>
+        <v>11120.696351000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.089082</v>
+        <v>3.0890819999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.446000</v>
+        <v>-313.44600000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>11131.719475</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.092144</v>
+        <v>3.0921439999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.914000</v>
+        <v>-499.91399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>11142.225700</v>
+        <v>11142.225700000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.095063</v>
+        <v>3.0950630000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1328.990000</v>
+        <v>1328.99</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.448000</v>
+        <v>-705.44799999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>11153.042980</v>
+        <v>11153.04298</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.098067</v>
+        <v>3.0980669999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1465.360000</v>
+        <v>1465.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-924.338000</v>
+        <v>-924.33799999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>11164.958341</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.101377</v>
+        <v>3.1013769999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.190000</v>
+        <v>1825.19</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1445.370000</v>
+        <v>-1445.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>10993.366871</v>
       </c>
       <c r="B13" s="1">
-        <v>3.053713</v>
+        <v>3.0537130000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>898.588000</v>
+        <v>898.58799999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.323000</v>
+        <v>-200.32300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>11003.811130</v>
+        <v>11003.81113</v>
       </c>
       <c r="G13" s="1">
-        <v>3.056614</v>
+        <v>3.0566140000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>916.295000</v>
+        <v>916.29499999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.299000</v>
+        <v>-169.29900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>11014.644251</v>
       </c>
       <c r="L13" s="1">
-        <v>3.059623</v>
+        <v>3.0596230000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>939.357000</v>
+        <v>939.35699999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.892000</v>
+        <v>-119.892</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>11025.094461</v>
+        <v>11025.094461000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.062526</v>
+        <v>3.0625260000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>945.904000</v>
+        <v>945.904</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.403000</v>
+        <v>-103.40300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>11035.937503</v>
+        <v>11035.937502999999</v>
       </c>
       <c r="V13" s="1">
-        <v>3.065538</v>
+        <v>3.0655380000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>952.294000</v>
+        <v>952.29399999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.247300</v>
+        <v>-88.247299999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>11046.615379</v>
+        <v>11046.615379000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.068504</v>
+        <v>3.0685039999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.238000</v>
+        <v>959.23800000000006</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.593200</v>
+        <v>-76.593199999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>11056.928718</v>
+        <v>11056.928717999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.071369</v>
+        <v>3.0713689999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.770000</v>
+        <v>963.77</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.378700</v>
+        <v>-74.378699999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11067.725146</v>
+        <v>11067.725146000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.074368</v>
+        <v>3.0743680000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.877000</v>
+        <v>970.87699999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.116400</v>
+        <v>-79.116399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>11078.114311</v>
+        <v>11078.114310999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.077254</v>
+        <v>3.0772539999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.842000</v>
+        <v>978.84199999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.654300</v>
+        <v>-90.654300000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>11089.246524</v>
@@ -3443,121 +3859,121 @@
         <v>3.080346</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.545000</v>
+        <v>988.54499999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.275000</v>
+        <v>-108.27500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>11099.945437</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.083318</v>
+        <v>3.0833179999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.670000</v>
+        <v>996.67</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.866000</v>
+        <v>-123.866</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>11110.579980</v>
+        <v>11110.57998</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.086272</v>
+        <v>3.0862720000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1034.630000</v>
+        <v>1034.6300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.870000</v>
+        <v>-195.87</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>11121.071327</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.089186</v>
+        <v>3.0891860000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.150000</v>
+        <v>1100.1500000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.459000</v>
+        <v>-313.459</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>11132.117232</v>
+        <v>11132.117232000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.092255</v>
+        <v>3.0922550000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.861000</v>
+        <v>-499.86099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>11142.638868</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.095177</v>
+        <v>3.0951770000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1328.910000</v>
+        <v>1328.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.377000</v>
+        <v>-705.37699999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>11153.472980</v>
+        <v>11153.47298</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.098187</v>
+        <v>3.0981869999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1465.450000</v>
+        <v>1465.45</v>
       </c>
       <c r="CA13" s="1">
-        <v>-924.404000</v>
+        <v>-924.404</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>11165.488596</v>
+        <v>11165.488595999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.101525</v>
+        <v>3.1015250000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.430000</v>
+        <v>1826.43</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1446.080000</v>
+        <v>-1446.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>10994.051878</v>
       </c>
@@ -3565,73 +3981,73 @@
         <v>3.053903</v>
       </c>
       <c r="C14" s="1">
-        <v>898.546000</v>
+        <v>898.54600000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.514000</v>
+        <v>-200.51400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>11004.500569</v>
       </c>
       <c r="G14" s="1">
-        <v>3.056806</v>
+        <v>3.0568059999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.651000</v>
+        <v>916.65099999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.278000</v>
+        <v>-169.27799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>11014.989467</v>
+        <v>11014.989466999999</v>
       </c>
       <c r="L14" s="1">
-        <v>3.059719</v>
+        <v>3.0597189999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>939.438000</v>
+        <v>939.43799999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.660000</v>
+        <v>-119.66</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>11025.444637</v>
+        <v>11025.444637000001</v>
       </c>
       <c r="Q14" s="1">
         <v>3.062624</v>
       </c>
       <c r="R14" s="1">
-        <v>945.881000</v>
+        <v>945.88099999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.405000</v>
+        <v>-103.405</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>11036.281727</v>
       </c>
       <c r="V14" s="1">
-        <v>3.065634</v>
+        <v>3.0656340000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>952.290000</v>
+        <v>952.29</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.258300</v>
+        <v>-88.258300000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>11046.764675</v>
@@ -3640,133 +4056,133 @@
         <v>3.068546</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.185000</v>
+        <v>959.18499999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.606800</v>
+        <v>-76.606800000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>11057.568035</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.071547</v>
+        <v>3.0715469999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.777000</v>
+        <v>963.77700000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.392000</v>
+        <v>-74.391999999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>11068.131620</v>
+        <v>11068.13162</v>
       </c>
       <c r="AK14" s="1">
         <v>3.074481</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.846000</v>
+        <v>970.846</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.109300</v>
+        <v>-79.109300000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>11078.559224</v>
+        <v>11078.559224000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.077378</v>
+        <v>3.0773779999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.828000</v>
+        <v>978.82799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.684600</v>
+        <v>-90.684600000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>11089.612568</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.080448</v>
+        <v>3.0804480000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.552000</v>
+        <v>988.55200000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.278000</v>
+        <v>-108.27800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>11100.310282</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.083420</v>
+        <v>3.0834199999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.669000</v>
+        <v>996.66899999999998</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.880000</v>
+        <v>-123.88</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>11110.940541</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.086372</v>
+        <v>3.0863719999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.894000</v>
+        <v>-195.89400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>11121.491439</v>
+        <v>11121.491438999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.089303</v>
+        <v>3.0893030000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.190000</v>
+        <v>1100.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.453000</v>
+        <v>-313.45299999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>11132.538864</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.092372</v>
+        <v>3.0923720000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1207.430000</v>
+        <v>1207.43</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.891000</v>
+        <v>-499.89100000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>11143.068931</v>
@@ -3775,75 +4191,75 @@
         <v>3.095297</v>
       </c>
       <c r="BU14" s="1">
-        <v>1328.840000</v>
+        <v>1328.84</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.472000</v>
+        <v>-705.47199999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>11153.893091</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.098304</v>
+        <v>3.0983040000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1465.360000</v>
+        <v>1465.36</v>
       </c>
       <c r="CA14" s="1">
-        <v>-924.334000</v>
+        <v>-924.33399999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>11166.006916</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.101669</v>
+        <v>3.1016689999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1445.520000</v>
+        <v>-1445.52</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>10994.398055</v>
       </c>
       <c r="B15" s="1">
-        <v>3.053999</v>
+        <v>3.0539990000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>898.310000</v>
+        <v>898.31</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.653000</v>
+        <v>-200.65299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>11004.843306</v>
+        <v>11004.843306000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.056901</v>
+        <v>3.0569009999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.287000</v>
+        <v>916.28700000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.298000</v>
+        <v>-169.298</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>11015.335211</v>
@@ -3852,28 +4268,28 @@
         <v>3.059815</v>
       </c>
       <c r="M15" s="1">
-        <v>939.204000</v>
+        <v>939.20399999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.757000</v>
+        <v>-119.75700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>11025.793325</v>
+        <v>11025.793325000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.062720</v>
+        <v>3.0627200000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>945.858000</v>
+        <v>945.85799999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>11036.930031</v>
@@ -3882,542 +4298,542 @@
         <v>3.065814</v>
       </c>
       <c r="W15" s="1">
-        <v>952.233000</v>
+        <v>952.23299999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.245500</v>
+        <v>-88.245500000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>11047.460064</v>
+        <v>11047.460064000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.068739</v>
+        <v>3.0687389999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.269000</v>
+        <v>959.26900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.526500</v>
+        <v>-76.526499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>11057.957891</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.071655</v>
+        <v>3.0716549999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.359100</v>
+        <v>-74.359099999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>11068.478038</v>
+        <v>11068.478037999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.074577</v>
+        <v>3.0745770000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.855000</v>
+        <v>970.85500000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.083300</v>
+        <v>-79.083299999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>11078.919815</v>
+        <v>11078.919814999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.077478</v>
+        <v>3.0774780000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.847000</v>
+        <v>978.84699999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.625000</v>
+        <v>-90.625</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>11089.977160</v>
+        <v>11089.97716</v>
       </c>
       <c r="AU15" s="1">
         <v>3.080549</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.553000</v>
+        <v>988.553</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.284000</v>
+        <v>-108.28400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>11100.665418</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.083518</v>
+        <v>3.0835180000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.656000</v>
+        <v>996.65599999999995</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.870000</v>
+        <v>-123.87</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>11111.357676</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.086488</v>
+        <v>3.0864880000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1034.620000</v>
+        <v>1034.6199999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.869000</v>
+        <v>-195.869</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>11121.843102</v>
+        <v>11121.843102000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.089401</v>
+        <v>3.0894010000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.170000</v>
+        <v>1100.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.452000</v>
+        <v>-313.452</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>11132.930673</v>
+        <v>11132.930673000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.092481</v>
+        <v>3.0924809999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.897000</v>
+        <v>-499.89699999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>11143.499425</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.095417</v>
+        <v>3.0954169999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1328.690000</v>
+        <v>1328.69</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.468000</v>
+        <v>-705.46799999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>11154.316676</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.098421</v>
+        <v>3.0984210000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1465.500000</v>
+        <v>1465.5</v>
       </c>
       <c r="CA15" s="1">
-        <v>-924.417000</v>
+        <v>-924.41700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>11166.522227</v>
+        <v>11166.522226999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.101812</v>
+        <v>3.1018119999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.750000</v>
+        <v>1825.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1444.710000</v>
+        <v>-1444.71</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>10994.741318</v>
       </c>
       <c r="B16" s="1">
-        <v>3.054095</v>
+        <v>3.0540949999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>898.645000</v>
+        <v>898.64499999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.457000</v>
+        <v>-200.45699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>11005.191000</v>
+        <v>11005.191000000001</v>
       </c>
       <c r="G16" s="1">
         <v>3.056997</v>
       </c>
       <c r="H16" s="1">
-        <v>916.043000</v>
+        <v>916.04300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.497000</v>
+        <v>-169.49700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>11015.983491</v>
+        <v>11015.983491000001</v>
       </c>
       <c r="L16" s="1">
-        <v>3.059995</v>
+        <v>3.0599949999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>939.425000</v>
+        <v>939.42499999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.756000</v>
+        <v>-119.756</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>11026.447090</v>
+        <v>11026.44709</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.062902</v>
+        <v>3.0629019999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>945.936000</v>
+        <v>945.93600000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.344000</v>
+        <v>-103.34399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>11037.308941</v>
+        <v>11037.308940999999</v>
       </c>
       <c r="V16" s="1">
-        <v>3.065919</v>
+        <v>3.0659190000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>952.297000</v>
+        <v>952.29700000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.167000</v>
+        <v>-88.167000000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>11047.810736</v>
+        <v>11047.810735999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.068836</v>
+        <v>3.0688360000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.154000</v>
+        <v>959.154</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.672300</v>
+        <v>-76.672300000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>11058.302115</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.071751</v>
+        <v>3.0717509999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.805000</v>
+        <v>963.80499999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.352800</v>
+        <v>-74.352800000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>11068.828708</v>
+        <v>11068.828707999999</v>
       </c>
       <c r="AK16" s="1">
         <v>3.074675</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.868000</v>
+        <v>970.86800000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.118700</v>
+        <v>-79.118700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>11079.279415</v>
+        <v>11079.279415000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.077578</v>
+        <v>3.0775779999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.839000</v>
+        <v>978.83900000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.648500</v>
+        <v>-90.648499999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>11090.391816</v>
+        <v>11090.391815999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.080664</v>
+        <v>3.0806640000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.534000</v>
+        <v>988.53399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.287000</v>
+        <v>-108.28700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>11101.086025</v>
+        <v>11101.086025000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.083635</v>
+        <v>3.0836350000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.661000</v>
+        <v>996.66099999999994</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.887000</v>
+        <v>-123.887</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>11111.665195</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.086574</v>
+        <v>3.0865740000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.600000</v>
+        <v>1034.5999999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.890000</v>
+        <v>-195.89</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>11122.219565</v>
+        <v>11122.219564999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.089505</v>
+        <v>3.0895049999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.477000</v>
+        <v>-313.47699999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>11133.356238</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.092599</v>
+        <v>3.0925989999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.914000</v>
+        <v>-499.91399999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>11143.908191</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.095530</v>
+        <v>3.0955300000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1328.690000</v>
+        <v>1328.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.381000</v>
+        <v>-705.38099999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>11154.742248</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.098540</v>
+        <v>3.0985399999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1465.320000</v>
+        <v>1465.32</v>
       </c>
       <c r="CA16" s="1">
-        <v>-924.220000</v>
+        <v>-924.22</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>11167.040050</v>
+        <v>11167.04005</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.101956</v>
+        <v>3.1019559999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.110000</v>
+        <v>1826.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1446.110000</v>
+        <v>-1446.11</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>10995.381125</v>
       </c>
       <c r="B17" s="1">
-        <v>3.054273</v>
+        <v>3.0542729999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>898.638000</v>
+        <v>898.63800000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.577000</v>
+        <v>-200.577</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>11005.820510</v>
+        <v>11005.82051</v>
       </c>
       <c r="G17" s="1">
         <v>3.057172</v>
       </c>
       <c r="H17" s="1">
-        <v>916.123000</v>
+        <v>916.12300000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.169000</v>
+        <v>-169.16900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>11016.372314</v>
       </c>
       <c r="L17" s="1">
-        <v>3.060103</v>
+        <v>3.0601029999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>939.363000</v>
+        <v>939.36300000000006</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.692000</v>
+        <v>-119.69199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>11026.836412</v>
+        <v>11026.836412000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.063010</v>
+        <v>3.0630099999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>945.938000</v>
+        <v>945.93799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>11037.656141</v>
+        <v>11037.656140999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.066016</v>
+        <v>3.0660159999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>952.262000</v>
+        <v>952.26199999999994</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.197200</v>
+        <v>-88.197199999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>11048.158431</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.068933</v>
+        <v>3.0689329999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.166000</v>
+        <v>959.16600000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.644600</v>
+        <v>-76.644599999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>11058.648326</v>
@@ -4426,210 +4842,210 @@
         <v>3.071847</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.760000</v>
+        <v>963.76</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.374000</v>
+        <v>-74.373999999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>11069.242372</v>
+        <v>11069.242372000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.074790</v>
+        <v>3.0747900000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.873000</v>
+        <v>970.87300000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.124900</v>
+        <v>-79.124899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>11079.689605</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.077692</v>
+        <v>3.0776919999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.850000</v>
+        <v>978.85</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.633800</v>
+        <v>-90.633799999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>11090.705255</v>
+        <v>11090.705255000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.080751</v>
+        <v>3.0807509999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.570000</v>
+        <v>988.57</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.278000</v>
+        <v>-108.27800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>11101.383657</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.083718</v>
+        <v>3.0837180000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.642000</v>
+        <v>996.64200000000005</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.873000</v>
+        <v>-123.873</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>11112.024299</v>
+        <v>11112.024299000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.086673</v>
+        <v>3.0866730000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.630000</v>
+        <v>1034.6300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.870000</v>
+        <v>-195.87</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>11122.592093</v>
+        <v>11122.592092999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.089609</v>
+        <v>3.0896089999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.455000</v>
+        <v>-313.45499999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>11133.753534</v>
+        <v>11133.753533999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.092709</v>
+        <v>3.0927090000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.916000</v>
+        <v>-499.916</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>11144.341638</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.095650</v>
+        <v>3.09565</v>
       </c>
       <c r="BU17" s="1">
-        <v>1328.590000</v>
+        <v>1328.59</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.332000</v>
+        <v>-705.33199999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>11155.163879</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.098657</v>
+        <v>3.0986570000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1465.530000</v>
+        <v>1465.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-924.328000</v>
+        <v>-924.32799999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>11167.581217</v>
+        <v>11167.581217000001</v>
       </c>
       <c r="CD17" s="1">
         <v>3.102106</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.110000</v>
+        <v>1827.11</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1444.620000</v>
+        <v>-1444.62</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>10995.763082</v>
+        <v>10995.763081999999</v>
       </c>
       <c r="B18" s="1">
         <v>3.054379</v>
       </c>
       <c r="C18" s="1">
-        <v>898.498000</v>
+        <v>898.49800000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.503000</v>
+        <v>-200.50299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>11006.221718</v>
+        <v>11006.221718000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.057284</v>
+        <v>3.0572840000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.666000</v>
+        <v>916.66600000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.507000</v>
+        <v>-169.50700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>11016.717562</v>
       </c>
       <c r="L18" s="1">
-        <v>3.060199</v>
+        <v>3.0601989999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>939.311000</v>
+        <v>939.31100000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.630000</v>
+        <v>-119.63</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>11027.184604</v>
@@ -4638,118 +5054,118 @@
         <v>3.063107</v>
       </c>
       <c r="R18" s="1">
-        <v>945.903000</v>
+        <v>945.90300000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.375000</v>
+        <v>-103.375</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>11038.002348</v>
       </c>
       <c r="V18" s="1">
-        <v>3.066112</v>
+        <v>3.0661119999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>952.229000</v>
+        <v>952.22900000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.186000</v>
+        <v>-88.186000000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>11048.570111</v>
+        <v>11048.570111000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.069047</v>
+        <v>3.0690469999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.140000</v>
+        <v>959.14</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.593900</v>
+        <v>-76.593900000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>11059.059505</v>
+        <v>11059.059504999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.071961</v>
+        <v>3.0719609999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.787000</v>
+        <v>963.78700000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.401500</v>
+        <v>-74.401499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>11069.527604</v>
+        <v>11069.527604000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.074869</v>
+        <v>3.0748690000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.862000</v>
+        <v>970.86199999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.107300</v>
+        <v>-79.107299999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>11079.999637</v>
+        <v>11079.999637000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.077778</v>
+        <v>3.0777779999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.838000</v>
+        <v>978.83799999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.643500</v>
+        <v>-90.643500000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>11091.069814</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.080853</v>
+        <v>3.0808529999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.556000</v>
+        <v>988.55600000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.253000</v>
+        <v>-108.253</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>11101.769512</v>
+        <v>11101.769512000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>3.083825</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.670000</v>
+        <v>996.67</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.887000</v>
+        <v>-123.887</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>11112.383898</v>
@@ -4758,120 +5174,120 @@
         <v>3.086773</v>
       </c>
       <c r="BF18" s="1">
-        <v>1034.620000</v>
+        <v>1034.6199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.866000</v>
+        <v>-195.86600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>11123.346476</v>
+        <v>11123.346476000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.089818</v>
+        <v>3.0898180000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.466000</v>
+        <v>-313.46600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>11134.171661</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.092825</v>
+        <v>3.0928249999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1207.360000</v>
+        <v>1207.3599999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.907000</v>
+        <v>-499.90699999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>11144.768714</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.095769</v>
+        <v>3.0957690000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1328.560000</v>
+        <v>1328.56</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.186000</v>
+        <v>-705.18600000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>11155.607265</v>
+        <v>11155.607265000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.098780</v>
+        <v>3.0987800000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1465.480000</v>
+        <v>1465.48</v>
       </c>
       <c r="CA18" s="1">
-        <v>-924.432000</v>
+        <v>-924.43200000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>11168.120870</v>
+        <v>11168.120870000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.102256</v>
+        <v>3.1022560000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.660000</v>
+        <v>1825.66</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1445.410000</v>
+        <v>-1445.41</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>10996.110740</v>
+        <v>10996.11074</v>
       </c>
       <c r="B19" s="1">
-        <v>3.054475</v>
+        <v>3.0544750000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>898.358000</v>
+        <v>898.35799999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.526000</v>
+        <v>-200.52600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>11006.567400</v>
+        <v>11006.5674</v>
       </c>
       <c r="G19" s="1">
-        <v>3.057380</v>
+        <v>3.0573800000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>916.087000</v>
+        <v>916.08699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.264000</v>
+        <v>-169.26400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>11017.062248</v>
@@ -4880,587 +5296,587 @@
         <v>3.060295</v>
       </c>
       <c r="M19" s="1">
-        <v>939.397000</v>
+        <v>939.39700000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.800000</v>
+        <v>-119.8</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>11027.535341</v>
+        <v>11027.535341000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.063204</v>
+        <v>3.0632039999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>945.891000</v>
+        <v>945.89099999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.363000</v>
+        <v>-103.363</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>11038.415548</v>
+        <v>11038.415548000001</v>
       </c>
       <c r="V19" s="1">
         <v>3.066227</v>
       </c>
       <c r="W19" s="1">
-        <v>952.235000</v>
+        <v>952.23500000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.236900</v>
+        <v>-88.236900000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>11048.851839</v>
+        <v>11048.851839000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.069126</v>
+        <v>3.0691259999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.037000</v>
+        <v>959.03700000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.592200</v>
+        <v>-76.592200000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>11059.355122</v>
+        <v>11059.355122000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.072043</v>
+        <v>3.0720429999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.808000</v>
+        <v>963.80799999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.384200</v>
+        <v>-74.384200000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>11069.873810</v>
+        <v>11069.873809999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.074965</v>
+        <v>3.0749650000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.876000</v>
+        <v>970.87599999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.076300</v>
+        <v>-79.076300000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>11080.362710</v>
+        <v>11080.362709999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.077879</v>
+        <v>3.0778789999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.818000</v>
+        <v>978.81799999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.631600</v>
+        <v>-90.631600000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>11091.434903</v>
+        <v>11091.434902999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.080954</v>
+        <v>3.0809540000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.539000</v>
+        <v>988.53899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.284000</v>
+        <v>-108.28400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>11102.427714</v>
+        <v>11102.427713999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.084008</v>
+        <v>3.0840079999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.670000</v>
+        <v>996.67</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.881000</v>
+        <v>-123.881</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>11113.108554</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.086975</v>
+        <v>3.0869749999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.620000</v>
+        <v>1034.6199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.882000</v>
+        <v>-195.88200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>11123.719996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.089922</v>
+        <v>3.0899220000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.170000</v>
+        <v>1100.17</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.456000</v>
+        <v>-313.45600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>11134.570941</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.092936</v>
+        <v>3.0929359999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.880000</v>
+        <v>-499.88</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>11145.178384</v>
+        <v>11145.178384000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.095883</v>
+        <v>3.0958830000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1328.580000</v>
+        <v>1328.58</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.145000</v>
+        <v>-705.14499999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>11156.024401</v>
+        <v>11156.024401000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.098896</v>
+        <v>3.0988959999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1465.440000</v>
+        <v>1465.44</v>
       </c>
       <c r="CA19" s="1">
-        <v>-924.348000</v>
+        <v>-924.34799999999996</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>11168.967042</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.102491</v>
+        <v>3.1024910000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1826.540000</v>
+        <v>1826.54</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1444.700000</v>
+        <v>-1444.7</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>10996.452020</v>
+        <v>10996.452020000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.054570</v>
+        <v>3.05457</v>
       </c>
       <c r="C20" s="1">
-        <v>898.618000</v>
+        <v>898.61800000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.446000</v>
+        <v>-200.446</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>11006.913110</v>
+        <v>11006.91311</v>
       </c>
       <c r="G20" s="1">
-        <v>3.057476</v>
+        <v>3.0574759999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>916.268000</v>
+        <v>916.26800000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.192000</v>
+        <v>-169.19200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>11017.475416</v>
+        <v>11017.475415999999</v>
       </c>
       <c r="L20" s="1">
-        <v>3.060410</v>
+        <v>3.0604100000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.258000</v>
+        <v>939.25800000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.681000</v>
+        <v>-119.681</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>11027.939018</v>
+        <v>11027.939017999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.063316</v>
+        <v>3.0633159999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.871000</v>
+        <v>945.87099999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>11038.708157</v>
+        <v>11038.708156999999</v>
       </c>
       <c r="V20" s="1">
-        <v>3.066308</v>
+        <v>3.0663079999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>952.326000</v>
+        <v>952.32600000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.200200</v>
+        <v>-88.200199999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>11049.203998</v>
+        <v>11049.203998000001</v>
       </c>
       <c r="AA20" s="1">
         <v>3.069223</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.241000</v>
+        <v>959.24099999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.555900</v>
+        <v>-76.555899999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>11059.696897</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.072138</v>
+        <v>3.0721379999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.747000</v>
+        <v>963.74699999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.401000</v>
+        <v>-74.400999999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11070.223954</v>
+        <v>11070.223953999999</v>
       </c>
       <c r="AK20" s="1">
         <v>3.075062</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.851000</v>
+        <v>970.851</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.093500</v>
+        <v>-79.093500000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>11080.719798</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.077978</v>
+        <v>3.0779779999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.841000</v>
+        <v>978.84100000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.663000</v>
+        <v>-90.662999999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>11092.164517</v>
+        <v>11092.164516999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.081157</v>
+        <v>3.0811570000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.539000</v>
+        <v>988.53899999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.302000</v>
+        <v>-108.30200000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>11102.818584</v>
+        <v>11102.818584000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.084116</v>
+        <v>3.0841159999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.665000</v>
+        <v>996.66499999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.880000</v>
+        <v>-123.88</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>11113.493449</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.087082</v>
+        <v>3.0870820000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.857000</v>
+        <v>-195.857</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>11124.093946</v>
+        <v>11124.093946000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.090026</v>
+        <v>3.0900259999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.455000</v>
+        <v>-313.45499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>11134.991053</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.093053</v>
+        <v>3.0930529999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.941000</v>
+        <v>-499.94099999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>11145.915472</v>
+        <v>11145.915472000001</v>
       </c>
       <c r="BT20" s="1">
         <v>3.096088</v>
       </c>
       <c r="BU20" s="1">
-        <v>1328.620000</v>
+        <v>1328.62</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.970000</v>
+        <v>-704.97</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>11156.764959</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.099101</v>
+        <v>3.0991010000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1465.500000</v>
+        <v>1465.5</v>
       </c>
       <c r="CA20" s="1">
-        <v>-924.357000</v>
+        <v>-924.35699999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>11169.199631</v>
+        <v>11169.199630999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.102555</v>
+        <v>3.1025550000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.600000</v>
+        <v>1826.6</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1444.940000</v>
+        <v>-1444.94</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>10996.873091</v>
+        <v>10996.873090999999</v>
       </c>
       <c r="B21" s="1">
-        <v>3.054687</v>
+        <v>3.0546869999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>898.397000</v>
+        <v>898.39700000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.423000</v>
+        <v>-200.423</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>11007.328261</v>
+        <v>11007.328261000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.057591</v>
+        <v>3.0575909999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.585000</v>
+        <v>916.58500000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.119000</v>
+        <v>-169.119</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>11017.774007</v>
       </c>
       <c r="L21" s="1">
-        <v>3.060493</v>
+        <v>3.0604930000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>939.305000</v>
+        <v>939.30499999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.682000</v>
+        <v>-119.682</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>11028.523305</v>
+        <v>11028.523305000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.063479</v>
+        <v>3.0634790000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>945.884000</v>
+        <v>945.88400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>11039.050905</v>
       </c>
       <c r="V21" s="1">
-        <v>3.066403</v>
+        <v>3.0664030000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>952.280000</v>
+        <v>952.28</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.222400</v>
+        <v>-88.222399999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>11049.552717</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.069320</v>
+        <v>3.0693199999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.256000</v>
+        <v>959.25599999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.589200</v>
+        <v>-76.589200000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>11060.040129</v>
+        <v>11060.040129000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.072233</v>
+        <v>3.0722330000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.780000</v>
+        <v>963.78</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.394700</v>
+        <v>-74.3947</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>11070.920339</v>
@@ -5469,240 +5885,240 @@
         <v>3.075256</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.839000</v>
+        <v>970.83900000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.094700</v>
+        <v>-79.094700000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>11081.446932</v>
+        <v>11081.446932000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.078180</v>
+        <v>3.0781800000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.832000</v>
+        <v>978.83199999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.658200</v>
+        <v>-90.658199999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>11092.549877</v>
+        <v>11092.549876999999</v>
       </c>
       <c r="AU21" s="1">
         <v>3.081264</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.555000</v>
+        <v>988.55499999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.282000</v>
+        <v>-108.282</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>11103.177158</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.084216</v>
+        <v>3.0842160000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.664000</v>
+        <v>996.66399999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>11113.875400</v>
+        <v>11113.875400000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.087188</v>
+        <v>3.0871879999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1034.640000</v>
+        <v>1034.6400000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.879000</v>
+        <v>-195.87899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>11124.772970</v>
+        <v>11124.77297</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.090215</v>
+        <v>3.0902150000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.469000</v>
+        <v>-313.46899999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>11135.695372</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.093249</v>
+        <v>3.0932490000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.944000</v>
+        <v>-499.94400000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>11146.037983</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.096122</v>
+        <v>3.0961219999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1328.630000</v>
+        <v>1328.63</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.876000</v>
+        <v>-704.87599999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>11156.929600</v>
+        <v>11156.929599999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.099147</v>
+        <v>3.0991469999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1465.490000</v>
+        <v>1465.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-924.285000</v>
+        <v>-924.28499999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>11169.718448</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.102700</v>
+        <v>3.1027</v>
       </c>
       <c r="CE21" s="1">
-        <v>1825.490000</v>
+        <v>1825.49</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1444.840000</v>
+        <v>-1444.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>10997.153828</v>
       </c>
       <c r="B22" s="1">
-        <v>3.054765</v>
+        <v>3.0547650000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>898.591000</v>
+        <v>898.59100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.473000</v>
+        <v>-200.47300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>11007.609493</v>
       </c>
       <c r="G22" s="1">
-        <v>3.057669</v>
+        <v>3.0576690000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>916.364000</v>
+        <v>916.36400000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.096000</v>
+        <v>-169.096</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>11018.116744</v>
+        <v>11018.116744000001</v>
       </c>
       <c r="L22" s="1">
-        <v>3.060588</v>
+        <v>3.0605880000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.392000</v>
+        <v>939.39200000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.700000</v>
+        <v>-119.7</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>11028.952360</v>
+        <v>11028.952359999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.063598</v>
+        <v>3.0635979999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>945.899000</v>
+        <v>945.899</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>11039.393164</v>
+        <v>11039.393163999999</v>
       </c>
       <c r="V22" s="1">
-        <v>3.066498</v>
+        <v>3.0664980000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>952.292000</v>
+        <v>952.29200000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.246200</v>
+        <v>-88.246200000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>11050.249070</v>
+        <v>11050.24907</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.069514</v>
+        <v>3.0695139999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.235000</v>
+        <v>959.23500000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.619500</v>
+        <v>-76.619500000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>11060.728544</v>
@@ -5711,557 +6127,557 @@
         <v>3.072425</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.756000</v>
+        <v>963.75599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.382900</v>
+        <v>-74.382900000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>11071.267537</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.075352</v>
+        <v>3.0753520000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.840000</v>
+        <v>970.84</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.123700</v>
+        <v>-79.123699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>11081.827363</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.078285</v>
+        <v>3.0782850000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.822000</v>
+        <v>978.822</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.640600</v>
+        <v>-90.640600000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>11092.919923</v>
+        <v>11092.919922999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.081367</v>
+        <v>3.0813670000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.566000</v>
+        <v>988.56600000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.267000</v>
+        <v>-108.267</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>11103.835845</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.084399</v>
+        <v>3.0843989999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.655000</v>
+        <v>996.65499999999997</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.879000</v>
+        <v>-123.879</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>11114.538055</v>
+        <v>11114.538055000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.087372</v>
+        <v>3.0873719999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.853000</v>
+        <v>-195.85300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>11125.221354</v>
+        <v>11125.221353999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.090339</v>
+        <v>3.0903390000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.455000</v>
+        <v>-313.45499999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>11135.804492</v>
+        <v>11135.804491999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.093279</v>
+        <v>3.0932789999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.920000</v>
+        <v>-499.92</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>11146.449629</v>
+        <v>11146.449629000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.096236</v>
+        <v>3.0962360000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1328.710000</v>
+        <v>1328.71</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.888000</v>
+        <v>-704.88800000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>11157.356959</v>
+        <v>11157.356959000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.099266</v>
+        <v>3.0992660000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1465.360000</v>
+        <v>1465.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-924.292000</v>
+        <v>-924.29200000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>11170.236766</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.102844</v>
+        <v>3.1028440000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.750000</v>
+        <v>1825.75</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1446.410000</v>
+        <v>-1446.41</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>10997.492130</v>
+        <v>10997.492130000001</v>
       </c>
       <c r="B23" s="1">
         <v>3.054859</v>
       </c>
       <c r="C23" s="1">
-        <v>898.530000</v>
+        <v>898.53</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.492000</v>
+        <v>-200.49199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>11007.957189</v>
+        <v>11007.957189000001</v>
       </c>
       <c r="G23" s="1">
         <v>3.057766</v>
       </c>
       <c r="H23" s="1">
-        <v>916.394000</v>
+        <v>916.39400000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.126000</v>
+        <v>-169.126</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>11018.462454</v>
       </c>
       <c r="L23" s="1">
-        <v>3.060684</v>
+        <v>3.0606840000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>939.236000</v>
+        <v>939.23599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.948000</v>
+        <v>-119.94799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>11029.631864</v>
+        <v>11029.631864000001</v>
       </c>
       <c r="Q23" s="1">
         <v>3.063787</v>
       </c>
       <c r="R23" s="1">
-        <v>945.894000</v>
+        <v>945.89400000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.387000</v>
+        <v>-103.387</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>11040.084114</v>
+        <v>11040.084113999999</v>
       </c>
       <c r="V23" s="1">
-        <v>3.066690</v>
+        <v>3.0666899999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>952.316000</v>
+        <v>952.31600000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.248200</v>
+        <v>-88.248199999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>11050.599244</v>
+        <v>11050.599244000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.069611</v>
+        <v>3.0696110000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.171000</v>
+        <v>959.17100000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.590900</v>
+        <v>-76.590900000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>11061.068830</v>
+        <v>11061.06883</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.072519</v>
+        <v>3.0725189999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.803000</v>
+        <v>963.803</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.347900</v>
+        <v>-74.347899999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>11071.617216</v>
+        <v>11071.617216000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.075449</v>
+        <v>3.0754489999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.868000</v>
+        <v>970.86800000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.093300</v>
+        <v>-79.093299999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>11082.186466</v>
+        <v>11082.186465999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.078385</v>
+        <v>3.0783849999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.848000</v>
+        <v>978.84799999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.642800</v>
+        <v>-90.642799999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>11093.584531</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.081551</v>
+        <v>3.0815510000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.547000</v>
+        <v>988.54700000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.272000</v>
+        <v>-108.27200000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>11104.283270</v>
+        <v>11104.28327</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.084523</v>
+        <v>3.0845229999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.685000</v>
+        <v>996.68499999999995</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.874000</v>
+        <v>-123.874</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>11114.960119</v>
+        <v>11114.960118999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.087489</v>
+        <v>3.0874890000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.867000</v>
+        <v>-195.86699999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>11125.598315</v>
+        <v>11125.598314999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.090444</v>
+        <v>3.0904440000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.150000</v>
+        <v>1100.1500000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.457000</v>
+        <v>-313.45699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>11136.231052</v>
+        <v>11136.231051999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.093398</v>
+        <v>3.0933980000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.859000</v>
+        <v>-499.85899999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>11146.880654</v>
+        <v>11146.880654000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.096356</v>
+        <v>3.0963560000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1328.880000</v>
+        <v>1328.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.839000</v>
+        <v>-704.83900000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>11157.970206</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.099436</v>
+        <v>3.0994359999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1465.360000</v>
+        <v>1465.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-924.300000</v>
+        <v>-924.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>11170.753109</v>
+        <v>11170.753108999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.102987</v>
+        <v>3.1029870000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.810000</v>
+        <v>1826.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1446.100000</v>
+        <v>-1446.1</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>10997.836323</v>
       </c>
       <c r="B24" s="1">
-        <v>3.054955</v>
+        <v>3.0549550000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.428000</v>
+        <v>898.428</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.509000</v>
+        <v>-200.50899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>11008.296948</v>
+        <v>11008.296947999999</v>
       </c>
       <c r="G24" s="1">
-        <v>3.057860</v>
+        <v>3.0578599999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>916.459000</v>
+        <v>916.45899999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.398000</v>
+        <v>-169.398</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>11019.153382</v>
       </c>
       <c r="L24" s="1">
-        <v>3.060876</v>
+        <v>3.0608759999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.179000</v>
+        <v>939.17899999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.665000</v>
+        <v>-119.66500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>11029.977079</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.063883</v>
+        <v>3.0638830000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>945.874000</v>
+        <v>945.87400000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.376000</v>
+        <v>-103.376</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>11040.424809</v>
       </c>
       <c r="V24" s="1">
-        <v>3.066785</v>
+        <v>3.0667849999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>952.255000</v>
+        <v>952.255</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.157100</v>
+        <v>-88.1571</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>11050.946941</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.069707</v>
+        <v>3.0697070000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.207000</v>
+        <v>959.20699999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.547800</v>
+        <v>-76.547799999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>11061.414510</v>
+        <v>11061.414510000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.072615</v>
+        <v>3.0726149999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.763000</v>
+        <v>963.76300000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.386500</v>
+        <v>-74.386499999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>11072.266511</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.075630</v>
+        <v>3.0756299999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.857000</v>
+        <v>970.85699999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.113300</v>
+        <v>-79.113299999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>11082.847175</v>
+        <v>11082.847175000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.078569</v>
+        <v>3.0785689999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.833000</v>
+        <v>978.83299999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.649600</v>
+        <v>-90.649600000000007</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>11094.016548</v>
@@ -6270,195 +6686,195 @@
         <v>3.081671</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.527000</v>
+        <v>988.52700000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.276000</v>
+        <v>-108.276</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>11104.642342</v>
+        <v>11104.642341999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.084623</v>
+        <v>3.0846230000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.676000</v>
+        <v>996.67600000000004</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.867000</v>
+        <v>-123.867</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>11115.352454</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.087598</v>
+        <v>3.0875979999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1034.640000</v>
+        <v>1034.6400000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.864000</v>
+        <v>-195.864</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>11125.970808</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.090547</v>
+        <v>3.0905469999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.170000</v>
+        <v>1100.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.448000</v>
+        <v>-313.44799999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>11136.617930</v>
+        <v>11136.61793</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.093505</v>
+        <v>3.0935049999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.908000</v>
+        <v>-499.90800000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>11147.309724</v>
+        <v>11147.309724000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.096475</v>
+        <v>3.0964749999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.898000</v>
+        <v>-704.89800000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>11158.237550</v>
+        <v>11158.23755</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.099510</v>
+        <v>3.09951</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1465.400000</v>
+        <v>1465.4</v>
       </c>
       <c r="CA24" s="1">
-        <v>-924.235000</v>
+        <v>-924.23500000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>11171.273440</v>
+        <v>11171.273440000001</v>
       </c>
       <c r="CD24" s="1">
         <v>3.103132</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.500000</v>
+        <v>1825.5</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1445.140000</v>
+        <v>-1445.14</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>10998.521308</v>
+        <v>10998.521307999999</v>
       </c>
       <c r="B25" s="1">
         <v>3.055145</v>
       </c>
       <c r="C25" s="1">
-        <v>898.531000</v>
+        <v>898.53099999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.445000</v>
+        <v>-200.44499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>11008.987876</v>
+        <v>11008.987875999999</v>
       </c>
       <c r="G25" s="1">
         <v>3.058052</v>
       </c>
       <c r="H25" s="1">
-        <v>916.485000</v>
+        <v>916.48500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.297000</v>
+        <v>-169.297</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>11019.499589</v>
+        <v>11019.499588999999</v>
       </c>
       <c r="L25" s="1">
         <v>3.060972</v>
       </c>
       <c r="M25" s="1">
-        <v>939.277000</v>
+        <v>939.27700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.813000</v>
+        <v>-119.813</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>11030.328248</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.063980</v>
+        <v>3.0639799999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>945.863000</v>
+        <v>945.86300000000006</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.348000</v>
+        <v>-103.348</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>11040.771017</v>
+        <v>11040.771016999999</v>
       </c>
       <c r="V25" s="1">
         <v>3.066881</v>
       </c>
       <c r="W25" s="1">
-        <v>952.259000</v>
+        <v>952.25900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.228200</v>
+        <v>-88.228200000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>11051.591739</v>
@@ -6467,345 +6883,345 @@
         <v>3.069887</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.160000</v>
+        <v>959.16</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.630100</v>
+        <v>-76.630099999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>11062.064307</v>
+        <v>11062.064307000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.072796</v>
+        <v>3.0727959999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.763000</v>
+        <v>963.76300000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.378800</v>
+        <v>-74.378799999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>11072.662783</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.075740</v>
+        <v>3.0757400000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.853000</v>
+        <v>970.85299999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.097700</v>
+        <v>-79.097700000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>11083.266257</v>
+        <v>11083.266256999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.078685</v>
+        <v>3.0786850000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.847000</v>
+        <v>978.84699999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.658400</v>
+        <v>-90.6584</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>11094.382099</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.081773</v>
+        <v>3.0817730000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.548000</v>
+        <v>988.548</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.274000</v>
+        <v>-108.274</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>11105.001444</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.084723</v>
+        <v>3.0847229999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.651000</v>
+        <v>996.65099999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.872000</v>
+        <v>-123.872</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>11115.710718</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.087697</v>
+        <v>3.0876969999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.878000</v>
+        <v>-195.87799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>11126.378520</v>
+        <v>11126.37852</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.090661</v>
+        <v>3.0906609999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.440000</v>
+        <v>-313.44</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>11137.048493</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.093625</v>
+        <v>3.0936249999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.894000</v>
+        <v>-499.89400000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>11147.719920</v>
+        <v>11147.71992</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.096589</v>
+        <v>3.0965889999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.896000</v>
+        <v>-704.89599999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>11158.658157</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.099627</v>
+        <v>3.0996269999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1465.380000</v>
+        <v>1465.38</v>
       </c>
       <c r="CA25" s="1">
-        <v>-924.370000</v>
+        <v>-924.37</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>11171.810605</v>
+        <v>11171.810605000001</v>
       </c>
       <c r="CD25" s="1">
         <v>3.103281</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.130000</v>
+        <v>1826.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1446.310000</v>
+        <v>-1446.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10998.862050</v>
+        <v>10998.86205</v>
       </c>
       <c r="B26" s="1">
-        <v>3.055239</v>
+        <v>3.0552389999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>898.641000</v>
+        <v>898.64099999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.507000</v>
+        <v>-200.50700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>11009.330151</v>
       </c>
       <c r="G26" s="1">
-        <v>3.058147</v>
+        <v>3.0581469999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.504000</v>
+        <v>916.50400000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.177000</v>
+        <v>-169.17699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>11019.846788</v>
+        <v>11019.846788000001</v>
       </c>
       <c r="L26" s="1">
-        <v>3.061069</v>
+        <v>3.0610689999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>939.395000</v>
+        <v>939.39499999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.828000</v>
+        <v>-119.828</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>11030.976023</v>
+        <v>11030.976022999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.064160</v>
+        <v>3.0641600000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>945.897000</v>
+        <v>945.89700000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.316000</v>
+        <v>-103.316</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>11041.424280</v>
+        <v>11041.424279999999</v>
       </c>
       <c r="V26" s="1">
         <v>3.067062</v>
       </c>
       <c r="W26" s="1">
-        <v>952.284000</v>
+        <v>952.28399999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.257900</v>
+        <v>-88.257900000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>11051.992010</v>
+        <v>11051.99201</v>
       </c>
       <c r="AA26" s="1">
         <v>3.069998</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.206000</v>
+        <v>959.20600000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.548000</v>
+        <v>-76.548000000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>11062.444700</v>
+        <v>11062.4447</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.072901</v>
+        <v>3.0729009999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.759000</v>
+        <v>963.75900000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.394600</v>
+        <v>-74.394599999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>11073.013951</v>
+        <v>11073.013951000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.075837</v>
+        <v>3.0758369999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.871000</v>
+        <v>970.87099999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.129800</v>
+        <v>-79.129800000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>11083.648672</v>
+        <v>11083.648671999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.078791</v>
+        <v>3.0787909999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.814000</v>
+        <v>978.81399999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.657400</v>
+        <v>-90.657399999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>11094.747154</v>
+        <v>11094.747154000001</v>
       </c>
       <c r="AU26" s="1">
         <v>3.081874</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.535000</v>
+        <v>988.53499999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.283000</v>
+        <v>-108.283</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>11105.414611</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.084837</v>
+        <v>3.0848369999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.661000</v>
+        <v>996.66099999999994</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.874000</v>
+        <v>-123.874</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>11116.112358</v>
@@ -6814,90 +7230,91 @@
         <v>3.087809</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.610000</v>
+        <v>1034.6099999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.878000</v>
+        <v>-195.87799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>11126.750552</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.090764</v>
+        <v>3.0907640000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.170000</v>
+        <v>1100.17</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.453000</v>
+        <v>-313.45299999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>11137.445786</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.093735</v>
+        <v>3.0937350000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.897000</v>
+        <v>-499.89699999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>11148.152923</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.096709</v>
+        <v>3.0967090000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.100000</v>
+        <v>1329.1</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.004000</v>
+        <v>-705.00400000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>11159.079292</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.099744</v>
+        <v>3.0997439999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1465.440000</v>
+        <v>1465.44</v>
       </c>
       <c r="CA26" s="1">
-        <v>-924.342000</v>
+        <v>-924.34199999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>11172.351243</v>
+        <v>11172.351242999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.103431</v>
+        <v>3.1034310000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.400000</v>
+        <v>1826.4</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1444.520000</v>
+        <v>-1444.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>